--- a/xo-starter-excel/src/test/resources/META-INF/xo/export/tags_export.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/export/tags_export.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="15480" windowHeight="11640"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="47">
   <si>
     <t>${department.name}</t>
   </si>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>上级</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级工资</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>总计：</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -123,14 +115,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>${employee.superior.name}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>${employee.superior.payment}</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>$[D10*(1+E10)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -140,10 +124,6 @@
   </si>
   <si>
     <t>$[SUM(F10)]</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H10)]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -206,12 +186,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -256,13 +236,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -333,27 +306,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -368,19 +326,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,95 +379,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,11 +461,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -609,6 +544,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -643,6 +579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -818,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="19.5703125" collapsed="false"/>
     <col min="2" max="2" customWidth="true" style="1" width="25.7109375" collapsed="false"/>
@@ -839,17 +776,17 @@
     <col min="10" max="16384" style="1" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="39.95" customHeight="true">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35" ht="39.95" customHeight="true">
       <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -861,15 +798,15 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" ht="30.0" customHeight="true">
-      <c r="A2" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35" ht="30.0" customHeight="true">
+      <c r="A2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -881,7 +818,7 @@
       <c r="O2"/>
       <c r="P2"/>
     </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" ht="20.1" customHeight="true">
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2" ht="20.1" customHeight="true">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -911,23 +848,23 @@
       <c r="O3"/>
       <c r="P3"/>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" ht="20.1" customHeight="true">
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2" ht="20.1" customHeight="true">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C4" s="30" t="n">
+      <c r="C4" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <f>D4*(1+E4)</f>
       </c>
       <c r="G4"/>
@@ -941,7 +878,7 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="20.1" customHeight="true">
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35" ht="20.1" customHeight="true">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -959,15 +896,15 @@
       <c r="O5"/>
       <c r="P5"/>
     </row>
-    <row r="6" spans="1:16" ht="30.0" customHeight="true">
-      <c r="A6" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35" ht="30.0" customHeight="true">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -979,7 +916,7 @@
       <c r="O6"/>
       <c r="P6"/>
     </row>
-    <row r="7" spans="1:16" s="5" customFormat="1" ht="20.1" customHeight="true">
+    <row r="7" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2" ht="20.1" customHeight="true">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
@@ -998,12 +935,8 @@
       <c r="F7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1012,31 +945,27 @@
       <c r="O7"/>
       <c r="P7"/>
     </row>
-    <row r="8" spans="1:16" s="7" customFormat="1" ht="20.1" customHeight="true">
+    <row r="8" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3" ht="20.1" customHeight="true">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C8" s="30" t="n">
+      <c r="C8" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D8" s="22" t="n">
+      <c r="D8" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <f>D8*(1+E8)</f>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1047,29 +976,25 @@
     </row>
     <row r="9" ht="20.1" customHeight="true">
       <c r="A9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>31.0</v>
       </c>
-      <c r="C9" s="30" t="n">
+      <c r="C9" s="25" t="n">
         <v>29952.0</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="19" t="n">
         <v>21000.0</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="19" t="n">
         <v>0.24</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="19" t="s">
         <f>D9*(1+E9)</f>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
       <c r="J9" s="0"/>
       <c r="K9" s="0"/>
       <c r="L9" s="0"/>
@@ -1080,29 +1005,25 @@
     </row>
     <row r="10" ht="20.1" customHeight="true">
       <c r="A10" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>32.0</v>
       </c>
-      <c r="C10" s="30" t="n">
+      <c r="C10" s="25" t="n">
         <v>29587.0</v>
       </c>
-      <c r="D10" s="22" t="n">
+      <c r="D10" s="19" t="n">
         <v>22000.0</v>
       </c>
-      <c r="E10" s="22" t="n">
+      <c r="E10" s="19" t="n">
         <v>0.23</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <f>D10*(1+E10)</f>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
       <c r="J10" s="0"/>
       <c r="K10" s="0"/>
       <c r="L10" s="0"/>
@@ -1113,29 +1034,25 @@
     </row>
     <row r="11" ht="20.1" customHeight="true">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>33.0</v>
       </c>
-      <c r="C11" s="30" t="n">
+      <c r="C11" s="25" t="n">
         <v>29221.0</v>
       </c>
-      <c r="D11" s="22" t="n">
+      <c r="D11" s="19" t="n">
         <v>23000.0</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="19" t="n">
         <v>0.22</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <f>D11*(1+E11)</f>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="L11" s="0"/>
@@ -1146,29 +1063,25 @@
     </row>
     <row r="12" ht="20.1" customHeight="true">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>34.0</v>
       </c>
-      <c r="C12" s="30" t="n">
+      <c r="C12" s="25" t="n">
         <v>28856.0</v>
       </c>
-      <c r="D12" s="22" t="n">
+      <c r="D12" s="19" t="n">
         <v>24000.0</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="19" t="n">
         <v>0.21</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <f>D12*(1+E12)</f>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
       <c r="J12" s="0"/>
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
@@ -1179,29 +1092,25 @@
     </row>
     <row r="13" ht="20.1" customHeight="true">
       <c r="A13" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>35.0</v>
       </c>
-      <c r="C13" s="30" t="n">
+      <c r="C13" s="25" t="n">
         <v>28491.0</v>
       </c>
-      <c r="D13" s="22" t="n">
+      <c r="D13" s="19" t="n">
         <v>25000.0</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <f>D13*(1+E13)</f>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
@@ -1212,29 +1121,25 @@
     </row>
     <row r="14" ht="20.1" customHeight="true">
       <c r="A14" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>36.0</v>
       </c>
-      <c r="C14" s="30" t="n">
+      <c r="C14" s="25" t="n">
         <v>28126.0</v>
       </c>
-      <c r="D14" s="22" t="n">
+      <c r="D14" s="19" t="n">
         <v>26000.0</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="19" t="n">
         <v>0.19</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <f>D14*(1+E14)</f>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
@@ -1245,29 +1150,25 @@
     </row>
     <row r="15" ht="20.1" customHeight="true">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>37.0</v>
       </c>
-      <c r="C15" s="30" t="n">
+      <c r="C15" s="25" t="n">
         <v>27760.0</v>
       </c>
-      <c r="D15" s="22" t="n">
+      <c r="D15" s="19" t="n">
         <v>27000.0</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="19" t="n">
         <v>0.18</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <f>D15*(1+E15)</f>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
@@ -1278,29 +1179,25 @@
     </row>
     <row r="16" ht="20.1" customHeight="true">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>38.0</v>
       </c>
-      <c r="C16" s="30" t="n">
+      <c r="C16" s="25" t="n">
         <v>27395.0</v>
       </c>
-      <c r="D16" s="22" t="n">
+      <c r="D16" s="19" t="n">
         <v>28000.0</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="19" t="n">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <f>D16*(1+E16)</f>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -1311,29 +1208,25 @@
     </row>
     <row r="17" ht="20.1" customHeight="true">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>39.0</v>
       </c>
-      <c r="C17" s="30" t="n">
+      <c r="C17" s="25" t="n">
         <v>27030.0</v>
       </c>
-      <c r="D17" s="22" t="n">
+      <c r="D17" s="19" t="n">
         <v>29000.0</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="19" t="n">
         <v>0.16</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <f>D17*(1+E17)</f>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
@@ -1342,23 +1235,21 @@
       <c r="O17" s="0"/>
       <c r="P17" s="0"/>
     </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="true">
+    <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2" ht="16.5" customHeight="true">
       <c r="A18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="20" t="s">
         <f>SUM(D8:D17)</f>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="21" t="s">
         <f>SUM(F8:F17)</f>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="25" t="s">
-        <f>SUM(H8:H17)</f>
-      </c>
+      <c r="G18"/>
+      <c r="H18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -1367,7 +1258,7 @@
       <c r="O18"/>
       <c r="P18"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5" customHeight="true">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35" ht="16.5" customHeight="true">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1387,15 +1278,15 @@
     </row>
     <row r="20" ht="16.5" customHeight="true">
       <c r="A20" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -1408,14 +1299,14 @@
       <c r="P20" s="0"/>
     </row>
     <row r="21" ht="16.5" customHeight="true">
-      <c r="A21" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -1459,21 +1350,21 @@
     </row>
     <row r="23" ht="16.5" customHeight="true">
       <c r="A23" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C23" s="30" t="n">
+      <c r="C23" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D23" s="22" t="n">
+      <c r="D23" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E23" s="22" t="n">
+      <c r="E23" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="19" t="s">
         <f>D23*(1+E23)</f>
       </c>
       <c r="G23" s="0"/>
@@ -1506,14 +1397,14 @@
       <c r="P24" s="0"/>
     </row>
     <row r="25" ht="16.5" customHeight="true">
-      <c r="A25" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
@@ -1544,12 +1435,8 @@
       <c r="F26" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
       <c r="J26" s="0"/>
       <c r="K26" s="0"/>
       <c r="L26" s="0"/>
@@ -1560,29 +1447,25 @@
     </row>
     <row r="27" ht="16.5" customHeight="true">
       <c r="A27" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C27" s="30" t="n">
+      <c r="C27" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D27" s="22" t="n">
+      <c r="D27" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E27" s="22" t="n">
+      <c r="E27" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="19" t="s">
         <f>D27*(1+E27)</f>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
       <c r="J27" s="0"/>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
@@ -1593,29 +1476,25 @@
     </row>
     <row r="28" ht="16.5" customHeight="true">
       <c r="A28" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" s="9" t="n">
         <v>31.0</v>
       </c>
-      <c r="C28" s="30" t="n">
+      <c r="C28" s="25" t="n">
         <v>29952.0</v>
       </c>
-      <c r="D28" s="22" t="n">
+      <c r="D28" s="19" t="n">
         <v>21000.0</v>
       </c>
-      <c r="E28" s="22" t="n">
+      <c r="E28" s="19" t="n">
         <v>0.24</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="19" t="s">
         <f>D28*(1+E28)</f>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
       <c r="L28" s="0"/>
@@ -1626,29 +1505,25 @@
     </row>
     <row r="29" ht="16.5" customHeight="true">
       <c r="A29" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B29" s="9" t="n">
         <v>32.0</v>
       </c>
-      <c r="C29" s="30" t="n">
+      <c r="C29" s="25" t="n">
         <v>29587.0</v>
       </c>
-      <c r="D29" s="22" t="n">
+      <c r="D29" s="19" t="n">
         <v>22000.0</v>
       </c>
-      <c r="E29" s="22" t="n">
+      <c r="E29" s="19" t="n">
         <v>0.23</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="19" t="s">
         <f>D29*(1+E29)</f>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H29" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
@@ -1659,29 +1534,25 @@
     </row>
     <row r="30" ht="16.5" customHeight="true">
       <c r="A30" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B30" s="9" t="n">
         <v>33.0</v>
       </c>
-      <c r="C30" s="30" t="n">
+      <c r="C30" s="25" t="n">
         <v>29221.0</v>
       </c>
-      <c r="D30" s="22" t="n">
+      <c r="D30" s="19" t="n">
         <v>23000.0</v>
       </c>
-      <c r="E30" s="22" t="n">
+      <c r="E30" s="19" t="n">
         <v>0.22</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="19" t="s">
         <f>D30*(1+E30)</f>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
@@ -1692,29 +1563,25 @@
     </row>
     <row r="31" ht="16.5" customHeight="true">
       <c r="A31" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" s="9" t="n">
         <v>34.0</v>
       </c>
-      <c r="C31" s="30" t="n">
+      <c r="C31" s="25" t="n">
         <v>28856.0</v>
       </c>
-      <c r="D31" s="22" t="n">
+      <c r="D31" s="19" t="n">
         <v>24000.0</v>
       </c>
-      <c r="E31" s="22" t="n">
+      <c r="E31" s="19" t="n">
         <v>0.21</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="19" t="s">
         <f>D31*(1+E31)</f>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="J31" s="0"/>
       <c r="K31" s="0"/>
       <c r="L31" s="0"/>
@@ -1725,29 +1592,25 @@
     </row>
     <row r="32" ht="16.5" customHeight="true">
       <c r="A32" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B32" s="9" t="n">
         <v>35.0</v>
       </c>
-      <c r="C32" s="30" t="n">
+      <c r="C32" s="25" t="n">
         <v>28491.0</v>
       </c>
-      <c r="D32" s="22" t="n">
+      <c r="D32" s="19" t="n">
         <v>25000.0</v>
       </c>
-      <c r="E32" s="22" t="n">
+      <c r="E32" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="19" t="s">
         <f>D32*(1+E32)</f>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
@@ -1758,29 +1621,25 @@
     </row>
     <row r="33" ht="16.5" customHeight="true">
       <c r="A33" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B33" s="9" t="n">
         <v>36.0</v>
       </c>
-      <c r="C33" s="30" t="n">
+      <c r="C33" s="25" t="n">
         <v>28126.0</v>
       </c>
-      <c r="D33" s="22" t="n">
+      <c r="D33" s="19" t="n">
         <v>26000.0</v>
       </c>
-      <c r="E33" s="22" t="n">
+      <c r="E33" s="19" t="n">
         <v>0.19</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="19" t="s">
         <f>D33*(1+E33)</f>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="J33" s="0"/>
       <c r="K33" s="0"/>
       <c r="L33" s="0"/>
@@ -1791,29 +1650,25 @@
     </row>
     <row r="34" ht="16.5" customHeight="true">
       <c r="A34" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>37.0</v>
       </c>
-      <c r="C34" s="30" t="n">
+      <c r="C34" s="25" t="n">
         <v>27760.0</v>
       </c>
-      <c r="D34" s="22" t="n">
+      <c r="D34" s="19" t="n">
         <v>27000.0</v>
       </c>
-      <c r="E34" s="22" t="n">
+      <c r="E34" s="19" t="n">
         <v>0.18</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="19" t="s">
         <f>D34*(1+E34)</f>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H34" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="J34" s="0"/>
       <c r="K34" s="0"/>
       <c r="L34" s="0"/>
@@ -1824,29 +1679,25 @@
     </row>
     <row r="35" ht="16.5" customHeight="true">
       <c r="A35" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>38.0</v>
       </c>
-      <c r="C35" s="30" t="n">
+      <c r="C35" s="25" t="n">
         <v>27395.0</v>
       </c>
-      <c r="D35" s="22" t="n">
+      <c r="D35" s="19" t="n">
         <v>28000.0</v>
       </c>
-      <c r="E35" s="22" t="n">
+      <c r="E35" s="19" t="n">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="19" t="s">
         <f>D35*(1+E35)</f>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
       <c r="L35" s="0"/>
@@ -1857,29 +1708,25 @@
     </row>
     <row r="36" ht="16.5" customHeight="true">
       <c r="A36" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>39.0</v>
       </c>
-      <c r="C36" s="30" t="n">
+      <c r="C36" s="25" t="n">
         <v>27030.0</v>
       </c>
-      <c r="D36" s="22" t="n">
+      <c r="D36" s="19" t="n">
         <v>29000.0</v>
       </c>
-      <c r="E36" s="22" t="n">
+      <c r="E36" s="19" t="n">
         <v>0.16</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="19" t="s">
         <f>D36*(1+E36)</f>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H36" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="J36" s="0"/>
       <c r="K36" s="0"/>
       <c r="L36" s="0"/>
@@ -1890,21 +1737,19 @@
     </row>
     <row r="37" ht="16.5" customHeight="true">
       <c r="A37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="20" t="s">
         <f>SUM(D27:D36)</f>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="21" t="s">
         <f>SUM(F27:F36)</f>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="25" t="s">
-        <f>SUM(H27:H36)</f>
-      </c>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="J37" s="0"/>
       <c r="K37" s="0"/>
       <c r="L37" s="0"/>
@@ -1933,15 +1778,15 @@
     </row>
     <row r="39" ht="16.5" customHeight="true">
       <c r="A39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="0"/>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
@@ -1954,14 +1799,14 @@
       <c r="P39" s="0"/>
     </row>
     <row r="40" ht="16.5" customHeight="true">
-      <c r="A40" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
       <c r="I40" s="0"/>
@@ -2005,21 +1850,21 @@
     </row>
     <row r="42" ht="16.5" customHeight="true">
       <c r="A42" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B42" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C42" s="30" t="n">
+      <c r="C42" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D42" s="22" t="n">
+      <c r="D42" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E42" s="22" t="n">
+      <c r="E42" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="19" t="s">
         <f>D42*(1+E42)</f>
       </c>
       <c r="G42" s="0"/>
@@ -2052,14 +1897,14 @@
       <c r="P43" s="0"/>
     </row>
     <row r="44" ht="16.5" customHeight="true">
-      <c r="A44" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="A44" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
@@ -2090,12 +1935,8 @@
       <c r="F45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
       <c r="J45" s="0"/>
       <c r="K45" s="0"/>
       <c r="L45" s="0"/>
@@ -2106,29 +1947,25 @@
     </row>
     <row r="46" ht="16.5" customHeight="true">
       <c r="A46" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B46" s="9" t="n">
         <v>30.0</v>
       </c>
-      <c r="C46" s="30" t="n">
+      <c r="C46" s="25" t="n">
         <v>30317.0</v>
       </c>
-      <c r="D46" s="22" t="n">
+      <c r="D46" s="19" t="n">
         <v>20000.0</v>
       </c>
-      <c r="E46" s="22" t="n">
+      <c r="E46" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="19" t="s">
         <f>D46*(1+E46)</f>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H46" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="0"/>
       <c r="L46" s="0"/>
@@ -2139,29 +1976,25 @@
     </row>
     <row r="47" ht="16.5" customHeight="true">
       <c r="A47" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B47" s="9" t="n">
         <v>31.0</v>
       </c>
-      <c r="C47" s="30" t="n">
+      <c r="C47" s="25" t="n">
         <v>29952.0</v>
       </c>
-      <c r="D47" s="22" t="n">
+      <c r="D47" s="19" t="n">
         <v>21000.0</v>
       </c>
-      <c r="E47" s="22" t="n">
+      <c r="E47" s="19" t="n">
         <v>0.24</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="19" t="s">
         <f>D47*(1+E47)</f>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
       <c r="L47" s="0"/>
@@ -2172,29 +2005,25 @@
     </row>
     <row r="48" ht="16.5" customHeight="true">
       <c r="A48" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>32.0</v>
       </c>
-      <c r="C48" s="30" t="n">
+      <c r="C48" s="25" t="n">
         <v>29587.0</v>
       </c>
-      <c r="D48" s="22" t="n">
+      <c r="D48" s="19" t="n">
         <v>22000.0</v>
       </c>
-      <c r="E48" s="22" t="n">
+      <c r="E48" s="19" t="n">
         <v>0.23</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="19" t="s">
         <f>D48*(1+E48)</f>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H48" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="0"/>
       <c r="L48" s="0"/>
@@ -2205,29 +2034,25 @@
     </row>
     <row r="49" ht="16.5" customHeight="true">
       <c r="A49" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B49" s="9" t="n">
         <v>33.0</v>
       </c>
-      <c r="C49" s="30" t="n">
+      <c r="C49" s="25" t="n">
         <v>29221.0</v>
       </c>
-      <c r="D49" s="22" t="n">
+      <c r="D49" s="19" t="n">
         <v>23000.0</v>
       </c>
-      <c r="E49" s="22" t="n">
+      <c r="E49" s="19" t="n">
         <v>0.22</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="19" t="s">
         <f>D49*(1+E49)</f>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H49" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="0"/>
       <c r="L49" s="0"/>
@@ -2238,29 +2063,25 @@
     </row>
     <row r="50" ht="16.5" customHeight="true">
       <c r="A50" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" s="9" t="n">
         <v>34.0</v>
       </c>
-      <c r="C50" s="30" t="n">
+      <c r="C50" s="25" t="n">
         <v>28856.0</v>
       </c>
-      <c r="D50" s="22" t="n">
+      <c r="D50" s="19" t="n">
         <v>24000.0</v>
       </c>
-      <c r="E50" s="22" t="n">
+      <c r="E50" s="19" t="n">
         <v>0.21</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="19" t="s">
         <f>D50*(1+E50)</f>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H50" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
       <c r="J50" s="0"/>
       <c r="K50" s="0"/>
       <c r="L50" s="0"/>
@@ -2271,29 +2092,25 @@
     </row>
     <row r="51" ht="16.5" customHeight="true">
       <c r="A51" s="9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B51" s="9" t="n">
         <v>35.0</v>
       </c>
-      <c r="C51" s="30" t="n">
+      <c r="C51" s="25" t="n">
         <v>28491.0</v>
       </c>
-      <c r="D51" s="22" t="n">
+      <c r="D51" s="19" t="n">
         <v>25000.0</v>
       </c>
-      <c r="E51" s="22" t="n">
+      <c r="E51" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="19" t="s">
         <f>D51*(1+E51)</f>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H51" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="0"/>
       <c r="L51" s="0"/>
@@ -2304,29 +2121,25 @@
     </row>
     <row r="52" ht="16.5" customHeight="true">
       <c r="A52" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B52" s="9" t="n">
         <v>36.0</v>
       </c>
-      <c r="C52" s="30" t="n">
+      <c r="C52" s="25" t="n">
         <v>28126.0</v>
       </c>
-      <c r="D52" s="22" t="n">
+      <c r="D52" s="19" t="n">
         <v>26000.0</v>
       </c>
-      <c r="E52" s="22" t="n">
+      <c r="E52" s="19" t="n">
         <v>0.19</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="19" t="s">
         <f>D52*(1+E52)</f>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
       <c r="J52" s="0"/>
       <c r="K52" s="0"/>
       <c r="L52" s="0"/>
@@ -2337,29 +2150,25 @@
     </row>
     <row r="53" ht="16.5" customHeight="true">
       <c r="A53" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B53" s="9" t="n">
         <v>37.0</v>
       </c>
-      <c r="C53" s="30" t="n">
+      <c r="C53" s="25" t="n">
         <v>27760.0</v>
       </c>
-      <c r="D53" s="22" t="n">
+      <c r="D53" s="19" t="n">
         <v>27000.0</v>
       </c>
-      <c r="E53" s="22" t="n">
+      <c r="E53" s="19" t="n">
         <v>0.18</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="19" t="s">
         <f>D53*(1+E53)</f>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
       <c r="J53" s="0"/>
       <c r="K53" s="0"/>
       <c r="L53" s="0"/>
@@ -2370,29 +2179,25 @@
     </row>
     <row r="54" ht="16.5" customHeight="true">
       <c r="A54" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B54" s="9" t="n">
         <v>38.0</v>
       </c>
-      <c r="C54" s="30" t="n">
+      <c r="C54" s="25" t="n">
         <v>27395.0</v>
       </c>
-      <c r="D54" s="22" t="n">
+      <c r="D54" s="19" t="n">
         <v>28000.0</v>
       </c>
-      <c r="E54" s="22" t="n">
+      <c r="E54" s="19" t="n">
         <v>0.16999999999999998</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="19" t="s">
         <f>D54*(1+E54)</f>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H54" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
       <c r="J54" s="0"/>
       <c r="K54" s="0"/>
       <c r="L54" s="0"/>
@@ -2403,29 +2208,25 @@
     </row>
     <row r="55" ht="16.5" customHeight="true">
       <c r="A55" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B55" s="9" t="n">
         <v>39.0</v>
       </c>
-      <c r="C55" s="30" t="n">
+      <c r="C55" s="25" t="n">
         <v>27030.0</v>
       </c>
-      <c r="D55" s="22" t="n">
+      <c r="D55" s="19" t="n">
         <v>29000.0</v>
       </c>
-      <c r="E55" s="22" t="n">
+      <c r="E55" s="19" t="n">
         <v>0.16</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="19" t="s">
         <f>D55*(1+E55)</f>
       </c>
-      <c r="G55" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H55" s="27" t="n">
-        <v>20000.0</v>
-      </c>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
       <c r="J55" s="0"/>
       <c r="K55" s="0"/>
       <c r="L55" s="0"/>
@@ -2436,21 +2237,19 @@
     </row>
     <row r="56" ht="16.5" customHeight="true">
       <c r="A56" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="20" t="s">
         <f>SUM(D46:D55)</f>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="24" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="21" t="s">
         <f>SUM(F46:F55)</f>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="25" t="s">
-        <f>SUM(H46:H55)</f>
-      </c>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
       <c r="L56" s="0"/>
@@ -2477,15 +2276,15 @@
       <c r="O57" s="0"/>
       <c r="P57" s="0"/>
     </row>
-    <row r="58" spans="1:16" s="6" customFormat="1" ht="16.5" customHeight="true">
-      <c r="A58" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="26" t="s">
+    <row r="58" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2" ht="16.5" customHeight="true">
+      <c r="A58" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="22" t="s">
         <f>SUM(F4,F23,F42+F18,F37,F56)</f>
       </c>
       <c r="G58"/>
